--- a/schedule_and_school_timetable/schedule&school_timetable.xlsx
+++ b/schedule_and_school_timetable/schedule&school_timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_SHTU_\2324_summer\social_practise\Social_practise-group_of_teaching\schedule_and_school_timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4218C217-EDBD-4934-9C61-187726A94D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114D8896-AFB6-460D-AA7A-1156B4100280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="594" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8933" yWindow="0" windowWidth="10350" windowHeight="10162" tabRatio="594" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总日程表" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>7.26-7.28</t>
   </si>
@@ -121,6 +121,30 @@
   </si>
   <si>
     <t>体育活动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机  匡鹏昊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育 林希远</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育 任天鸣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈 钟奕珈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王默涵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐一舟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +736,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -751,10 +775,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>27</v>
@@ -794,12 +818,9 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -825,16 +846,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>26</v>

--- a/schedule_and_school_timetable/schedule&school_timetable.xlsx
+++ b/schedule_and_school_timetable/schedule&school_timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_SHTU_\2324_summer\social_practise\Social_practise-group_of_teaching\schedule_and_school_timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114D8896-AFB6-460D-AA7A-1156B4100280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60AF890-653C-42DE-BE79-308C550F8DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8933" yWindow="0" windowWidth="10350" windowHeight="10162" tabRatio="594" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总日程表" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>7.26-7.28</t>
   </si>
@@ -103,48 +103,262 @@
     <t>14:10-15:40</t>
   </si>
   <si>
+    <t>16:00-17:30</t>
+  </si>
+  <si>
+    <t>运动会（一下午）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育活动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附校讲课</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>社团展演</t>
-  </si>
-  <si>
-    <t>16:00-17:30</t>
-  </si>
-  <si>
-    <t>活动</t>
-  </si>
-  <si>
-    <t>运动会（一下午）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上课</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体育活动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机  匡鹏昊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体育 林希远</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体育 任天鸣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>舞蹈 钟奕珈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王默涵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐一舟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组交流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">计算机  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>匡鹏昊</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">舞蹈 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钟奕珈</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">体育 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>林希远</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">实验课 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赵鑫</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">音乐 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万紫衣</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AI与GPT  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>王默涵</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">动画鉴赏 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>杨凤藻</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">你画我猜  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>齐一舟</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">体育 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任天鸣</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团活动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">魔方 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周正佳</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>文学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 师芸谦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>王默涵</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空了一节课</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>草台班子</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +393,40 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -326,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,6 +639,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,10 +936,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -681,7 +947,7 @@
     <col min="1" max="6" width="18.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="26.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -700,8 +966,11 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="27">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="88.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="88.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -719,6 +988,9 @@
       </c>
       <c r="F2" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -735,8 +1007,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -775,19 +1047,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -795,20 +1067,20 @@
         <v>19</v>
       </c>
       <c r="B3" s="19"/>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>28</v>
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -818,16 +1090,19 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -849,13 +1124,16 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>27</v>
@@ -863,23 +1141,23 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
